--- a/asd.xlsx
+++ b/asd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D37338-6B5A-4F91-A7DF-2FC8884E1DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B1772D-F3E6-4150-9C9C-A8FDB5BFEFD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED9A53EF-8DF2-46B6-9F6B-CC3AED4EFA87}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>ID + ArgDate (ID+START_DT)</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
   <si>
     <t>endpoint</t>
@@ -527,7 +524,7 @@
   <dimension ref="C1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +545,7 @@
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -693,13 +690,13 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
@@ -717,18 +714,18 @@
         <v>13</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -746,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">

--- a/asd.xlsx
+++ b/asd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B1772D-F3E6-4150-9C9C-A8FDB5BFEFD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E47124-784F-4A38-B1DD-91FF69F0BA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED9A53EF-8DF2-46B6-9F6B-CC3AED4EFA87}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="C1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/asd.xlsx
+++ b/asd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E47124-784F-4A38-B1DD-91FF69F0BA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E7C16-4FBF-417B-A2AD-E4C535735A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED9A53EF-8DF2-46B6-9F6B-CC3AED4EFA87}"/>
+    <workbookView xWindow="4095" yWindow="4020" windowWidth="21600" windowHeight="11385" xr2:uid="{ED9A53EF-8DF2-46B6-9F6B-CC3AED4EFA87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,60 +33,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ArgDate</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>tabela główna</t>
-  </si>
-  <si>
-    <t>tabela relacyjna</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>GminaRelacja</t>
   </si>
   <si>
-    <t>V_GminaRelacje</t>
-  </si>
-  <si>
-    <t>V_RelacjeGmin</t>
-  </si>
-  <si>
-    <t>V_RelacjePowiatów</t>
-  </si>
-  <si>
-    <t>V_Relacje_Wojewodztw</t>
-  </si>
-  <si>
-    <t>V_Wszystko</t>
-  </si>
-  <si>
     <t>✓</t>
   </si>
   <si>
-    <t>ID + DT + ID + DT + DT</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>ID + ArgDate (ID+START_DT)</t>
-  </si>
-  <si>
     <t>endpoint</t>
   </si>
   <si>
-    <t>Typ + ID + ArgDate(Typ + ID + StartDate)</t>
-  </si>
-  <si>
-    <t>Typ + ID</t>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Gmina &amp; Powiat &amp; Wojewodztwo</t>
+  </si>
+  <si>
+    <t>GminaPowiat &amp; GminaWojewodztwo &amp; PowiatWojewodztwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GminaGmina </t>
+  </si>
+  <si>
+    <t>GminaRelacje &amp; PowiatRelacje &amp; WojewodztwoRelacje</t>
+  </si>
+  <si>
+    <t>GminaPowiatWojewodztwo</t>
+  </si>
+  <si>
+    <t>\ID</t>
+  </si>
+  <si>
+    <t>\ArgDate</t>
+  </si>
+  <si>
+    <t>\Typ\ID</t>
+  </si>
+  <si>
+    <t>\ID\ArgDate</t>
+  </si>
+  <si>
+    <t>\Typ\ID\ArgDate</t>
+  </si>
+  <si>
+    <t>\ID\ArgDate\ID\ArgDate\ArgDate</t>
   </si>
 </sst>
 </file>
@@ -168,13 +162,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -207,18 +195,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C153004-4CDB-4E53-9C1B-29D05EDD37DD}" name="Table1" displayName="Table1" ref="C2:K9" totalsRowShown="0">
-  <autoFilter ref="C2:K9" xr:uid="{D9B1C8AD-47BC-47C8-A59B-1B0520CD2737}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C153004-4CDB-4E53-9C1B-29D05EDD37DD}" name="Table1" displayName="Table1" ref="C2:I9" totalsRowShown="0">
+  <autoFilter ref="C2:I9" xr:uid="{D9B1C8AD-47BC-47C8-A59B-1B0520CD2737}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0B0E9751-F40F-4D39-9793-0B25C71B099F}" name="endpoint"/>
-    <tableColumn id="2" xr3:uid="{313744AF-BAF9-4ED3-B6B7-1FEB529FF703}" name="tabela główna" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C7BAE770-22AC-4E15-9937-89C81D24EE52}" name="tabela relacyjna" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F89B3546-3595-40AA-B4D6-FC7F54FC4F0E}" name="GminaRelacja" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7CA39FD1-7138-4676-AB27-41A7760DBDA9}" name="V_GminaRelacje" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A746CEE9-8B17-44BE-833C-A8392DA601B2}" name="V_RelacjeGmin" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{CA997B1E-D67B-4E02-95AA-C060932669F2}" name="V_RelacjePowiatów" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{8ABD5654-2581-459F-B9B4-C8DE28A5DD4D}" name="V_Relacje_Wojewodztw" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{485E0D24-A4E8-4AB5-9BEE-A1431337F23E}" name="V_Wszystko" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{313744AF-BAF9-4ED3-B6B7-1FEB529FF703}" name="Gmina &amp; Powiat &amp; Wojewodztwo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C7BAE770-22AC-4E15-9937-89C81D24EE52}" name="GminaPowiat &amp; GminaWojewodztwo &amp; PowiatWojewodztwo" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F89B3546-3595-40AA-B4D6-FC7F54FC4F0E}" name="GminaRelacja" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7CA39FD1-7138-4676-AB27-41A7760DBDA9}" name="GminaGmina " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A746CEE9-8B17-44BE-833C-A8392DA601B2}" name="GminaRelacje &amp; PowiatRelacje &amp; WojewodztwoRelacje" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CA997B1E-D67B-4E02-95AA-C060932669F2}" name="GminaPowiatWojewodztwo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,258 +507,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E19CFAD-53C6-46C4-88D3-3BB1F48F1905}">
-  <dimension ref="C1:K9"/>
+  <dimension ref="C1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
